--- a/biology/Botanique/Tillandsia_fawcettii/Tillandsia_fawcettii.xlsx
+++ b/biology/Botanique/Tillandsia_fawcettii/Tillandsia_fawcettii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia fawcettii Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 Le terme fawcettii est une dédicace à un Mr Fawcett dont le protologue ne précise ni l'identité ni le lien éventuel avec la plante.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia fawcettii Mez in C.DC., Monogr. Phan. 9: 752, n° 101 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis dense rosulatis, lepidibus pallidis, adpressis, creberrimis conspersis ; inflorescentia tripinnatim panniculata[sic], haud ferrugineo-lepidota ; spicis laxiusculis pinnatis, +/- 10-floris, rhachi undulata nec alata ; bracteolis florigeris nec imbricatis nec axes obtegentibus, apicem versus nullo modo incurvis, sepala conspicue superantibus ; floribus erectis ; sepalis liberis, asymmetricis. »
 Type :
-leg. W.H.Harris, n° 5186 ; « Jamaica, in montibus caeruleis » ; « herb. bot. Dept. » ; Holotypus B[1]
+leg. W.H.Harris, n° 5186 ; « Jamaica, in montibus caeruleis » ; « herb. bot. Dept. » ; Holotypus B
 leg. W.H.Harris, n° 5186, 1894-06-18 ; Isotypus GH (Gray Herbarium) (GH 219912)</t>
         </is>
       </c>
@@ -549,10 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Racinea fawcettii (Mez) M.A.Spencer &amp; L.B.Sm.
-Synonymie taxonomique
-(aucune)</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Racinea fawcettii (Mez) M.A.Spencer &amp; L.B.Sm.</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,10 +630,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tillandsia_fawcettii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_fawcettii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Typologie : plante vivace herbacée.
 Habitat : ?
@@ -614,38 +671,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tillandsia_fawcettii</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tillandsia_fawcettii</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Antilles :
- Jamaïque[2]
-Blue Mountains[1]</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -667,10 +692,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Antilles :
+ Jamaïque
+Blue Mountains</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_fawcettii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_fawcettii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia fawcettii est une plante mal connue qui ne semble pas avoir été introduite en culture, tout du moins sous ce nom.
 </t>
